--- a/xay tuong.xlsx
+++ b/xay tuong.xlsx
@@ -1330,11 +1330,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -2000,7 +1999,7 @@
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="80" fitToHeight="0" fitToWidth="1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="80" fitToHeight="0" fitToWidth="0"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
